--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,58 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>456</v>
+      </c>
+      <c r="C3" t="n">
+        <v>456</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,13 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>123</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sujunlan</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,11 +477,13 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>456</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kaka</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>456</v>
+        <v>123456</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -493,15 +497,139 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>123456</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>yzy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zgy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sujunlan1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sujunlan2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>["自然风光"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sujunlan3</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>["名胜古迹"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kaka66</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>yan</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,13 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>123</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sujunlan</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,11 +477,13 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>456</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kaka</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>456</v>
+        <v>123456</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -493,15 +497,175 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>yzy</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zgy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sujunlan1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sujunlan2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>["自然风光"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sujunlan3</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>["名胜古迹"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kaka66</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>yan</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C12" t="n">
+        <v>123</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>["自然风光"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>456</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["自然风光"]</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["历史遗迹"]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sujunlan1</t>
+          <t>yanzhangyang</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["宗教文化"]</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sujunlan2</t>
+          <t>zhanggengyuan</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sujunlan3</t>
+          <t>victor</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kaka66</t>
+          <t>lihua</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>["自然风光"]</t>
         </is>
       </c>
     </row>
@@ -623,51 +623,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>yan</t>
+          <t>xiaoming</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>["自然风光"]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>456</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>["名胜古迹"]</t>
         </is>
       </c>
     </row>
